--- a/biology/Zoologie/Grayia_ornata/Grayia_ornata.xlsx
+++ b/biology/Zoologie/Grayia_ornata/Grayia_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grayia ornata est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grayia ornata est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Angola, au Cameroun, au Gabon, en Guinée équatoriale, en République centrafricaine, en République du Congo, en République démocratique du Congo (à l'exception de l'ouest du pays) et en Zambie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Angola, au Cameroun, au Gabon, en Guinée équatoriale, en République centrafricaine, en République du Congo, en République démocratique du Congo (à l'exception de l'ouest du pays) et en Zambie. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bocage, 1866 : Lista dos reptis das possessões portuguezas d'Africa occidental que existem no Museu Lisboa. Jornal de sciencias mathematicas, physicas e naturaes, vol. 1, p. 37-56 (texte intégral).
 Bocage, 1866 : Reptiles nouveaux ou peu connus recueillis dans les possessions portugaises de l'Afrique occidentale, qui se trouvent au Muséum de Lisbonne, Jornal de sciencias mathematicas, physicas e naturaes, vol. 1, p. 57-78 (texte intégral).</t>
